--- a/Code/Results/Cases/Case_0_93/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_93/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.8757813139534074</v>
+        <v>1.006090927296766</v>
       </c>
       <c r="D2">
-        <v>0.8857917608267079</v>
+        <v>1.008736917786339</v>
       </c>
       <c r="E2">
-        <v>0.8970651955480083</v>
+        <v>1.008722147100834</v>
       </c>
       <c r="F2">
-        <v>0.8445651984809721</v>
+        <v>1.004255285924022</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.023594999628091</v>
       </c>
       <c r="J2">
-        <v>0.9024388679798143</v>
+        <v>1.011370418211365</v>
       </c>
       <c r="K2">
-        <v>0.8991103725623752</v>
+        <v>1.011612260904118</v>
       </c>
       <c r="L2">
-        <v>0.9101728436944642</v>
+        <v>1.011597535032606</v>
       </c>
       <c r="M2">
-        <v>0.8587189657400635</v>
+        <v>1.00714429220932</v>
       </c>
       <c r="N2">
-        <v>0.9670925342987726</v>
+        <v>1.007347764093004</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.8944385519074747</v>
+        <v>1.008747479273435</v>
       </c>
       <c r="D3">
-        <v>0.9033930332535086</v>
+        <v>1.011303855525857</v>
       </c>
       <c r="E3">
-        <v>0.9130373275831117</v>
+        <v>1.011042418778869</v>
       </c>
       <c r="F3">
-        <v>0.8677596608903688</v>
+        <v>1.007591720365494</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208683</v>
       </c>
       <c r="J3">
-        <v>0.918288365770171</v>
+        <v>1.013648668426333</v>
       </c>
       <c r="K3">
-        <v>0.915431940868689</v>
+        <v>1.01397794869283</v>
       </c>
       <c r="L3">
-        <v>0.9249187246824787</v>
+        <v>1.013717244929004</v>
       </c>
       <c r="M3">
-        <v>0.8804200875861936</v>
+        <v>1.010276259819717</v>
       </c>
       <c r="N3">
-        <v>0.9730008277988099</v>
+        <v>1.008163843152681</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9055181817541584</v>
+        <v>1.010454205672261</v>
       </c>
       <c r="D4">
-        <v>0.9138582289558141</v>
+        <v>1.012953150827621</v>
       </c>
       <c r="E4">
-        <v>0.9225394459016674</v>
+        <v>1.012532685184043</v>
       </c>
       <c r="F4">
-        <v>0.8814737576165352</v>
+        <v>1.009736437635741</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>0.9276918708148255</v>
+        <v>1.015110944212857</v>
       </c>
       <c r="K4">
-        <v>0.9251209556486499</v>
+        <v>1.015496830735572</v>
       </c>
       <c r="L4">
-        <v>0.9336723267880459</v>
+        <v>1.015077481814618</v>
       </c>
       <c r="M4">
-        <v>0.8932499082610089</v>
+        <v>1.012288686452855</v>
       </c>
       <c r="N4">
-        <v>0.9765086501147786</v>
+        <v>1.008686106013879</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9099760414900744</v>
+        <v>1.011168864086611</v>
       </c>
       <c r="D5">
-        <v>0.918071450801441</v>
+        <v>1.01364379410684</v>
       </c>
       <c r="E5">
-        <v>0.9263658303767933</v>
+        <v>1.013156603907741</v>
       </c>
       <c r="F5">
-        <v>0.8869809358341363</v>
+        <v>1.010634790494188</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628352</v>
       </c>
       <c r="J5">
-        <v>0.9314730580382737</v>
+        <v>1.015722906349846</v>
       </c>
       <c r="K5">
-        <v>0.9290181903566578</v>
+        <v>1.016132598703526</v>
       </c>
       <c r="L5">
-        <v>0.9371930322820329</v>
+        <v>1.015646672322158</v>
       </c>
       <c r="M5">
-        <v>0.8984012309339057</v>
+        <v>1.013131421759706</v>
       </c>
       <c r="N5">
-        <v>0.9779191308822365</v>
+        <v>1.00890430323948</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9107137093106977</v>
+        <v>1.01128869361613</v>
       </c>
       <c r="D6">
-        <v>0.9187687775322103</v>
+        <v>1.013759598832091</v>
       </c>
       <c r="E6">
-        <v>0.9269991736897369</v>
+        <v>1.013261212756077</v>
       </c>
       <c r="F6">
-        <v>0.8878917006945606</v>
+        <v>1.010785438287014</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>0.9320986132564427</v>
+        <v>1.015825496594373</v>
       </c>
       <c r="K6">
-        <v>0.9296630161433491</v>
+        <v>1.016239186605169</v>
       </c>
       <c r="L6">
-        <v>0.937775535746371</v>
+        <v>1.01574208822494</v>
       </c>
       <c r="M6">
-        <v>0.8992530903702423</v>
+        <v>1.013272730806827</v>
       </c>
       <c r="N6">
-        <v>0.9781524620959154</v>
+        <v>1.008940860364173</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9055784918085864</v>
+        <v>1.010463766062008</v>
       </c>
       <c r="D7">
-        <v>0.9139152195504737</v>
+        <v>1.012962389824796</v>
       </c>
       <c r="E7">
-        <v>0.9225912008449949</v>
+        <v>1.012541032099205</v>
       </c>
       <c r="F7">
-        <v>0.8815483022488687</v>
+        <v>1.009748454240761</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.02344298551034</v>
       </c>
       <c r="J7">
-        <v>0.9277430355885774</v>
+        <v>1.015119132104624</v>
       </c>
       <c r="K7">
-        <v>0.9251736858067738</v>
+        <v>1.01550533668602</v>
       </c>
       <c r="L7">
-        <v>0.9337199638618182</v>
+        <v>1.015085097703793</v>
       </c>
       <c r="M7">
-        <v>0.8933196395765812</v>
+        <v>1.01229995991101</v>
       </c>
       <c r="N7">
-        <v>0.976527736734753</v>
+        <v>1.008689026894543</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.8823187308931427</v>
+        <v>1.006991305242733</v>
       </c>
       <c r="D8">
-        <v>0.8919560643951536</v>
+        <v>1.009606892739674</v>
       </c>
       <c r="E8">
-        <v>0.9026573975021216</v>
+        <v>1.009508635157863</v>
       </c>
       <c r="F8">
-        <v>0.8527084306926551</v>
+        <v>1.00538585128034</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.9079942447310803</v>
+        <v>1.012142871873047</v>
       </c>
       <c r="K8">
-        <v>0.9048299779603887</v>
+        <v>1.012414259729833</v>
       </c>
       <c r="L8">
-        <v>0.9153400861146695</v>
+        <v>1.01231629258539</v>
       </c>
       <c r="M8">
-        <v>0.8663378570702087</v>
+        <v>1.008205750865691</v>
       </c>
       <c r="N8">
-        <v>0.9691624607038944</v>
+        <v>1.007624777058743</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8310667399382834</v>
+        <v>1.000774926865738</v>
       </c>
       <c r="D9">
-        <v>0.8437243878717492</v>
+        <v>1.003601057654389</v>
       </c>
       <c r="E9">
-        <v>0.8589623778113997</v>
+        <v>1.004076946789063</v>
       </c>
       <c r="F9">
-        <v>0.7882637290538137</v>
+        <v>0.9975848337851936</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.8644105482372404</v>
+        <v>1.006803877021899</v>
       </c>
       <c r="K9">
-        <v>0.859989398732563</v>
+        <v>1.006873078252644</v>
       </c>
       <c r="L9">
-        <v>0.8748497692129166</v>
+        <v>1.007347303589047</v>
       </c>
       <c r="M9">
-        <v>0.8060737080976991</v>
+        <v>1.000878039125616</v>
       </c>
       <c r="N9">
-        <v>0.9529782721335242</v>
+        <v>1.005703893909823</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.7823511182023766</v>
+        <v>0.996559851789255</v>
       </c>
       <c r="D10">
-        <v>0.7980982023018662</v>
+        <v>0.9995295930248139</v>
       </c>
       <c r="E10">
-        <v>0.8178044437083333</v>
+        <v>1.000391984513435</v>
       </c>
       <c r="F10">
-        <v>0.7251468653194478</v>
+        <v>0.9923007265657129</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.8229644190365635</v>
+        <v>1.003176380503838</v>
       </c>
       <c r="K10">
-        <v>0.817407170105089</v>
+        <v>1.003110765348435</v>
       </c>
       <c r="L10">
-        <v>0.8364824721124439</v>
+        <v>1.003969824468226</v>
       </c>
       <c r="M10">
-        <v>0.7472220008515607</v>
+        <v>0.9959100850204839</v>
       </c>
       <c r="N10">
-        <v>0.9377753718370759</v>
+        <v>1.004391033268429</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.7519923966843134</v>
+        <v>0.9947166684116076</v>
       </c>
       <c r="D11">
-        <v>0.7697815502640761</v>
+        <v>0.9977494253751147</v>
       </c>
       <c r="E11">
-        <v>0.7923835285410412</v>
+        <v>0.998780179401472</v>
       </c>
       <c r="F11">
-        <v>0.6843119709817339</v>
+        <v>0.9899912410929461</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.7971422160443724</v>
+        <v>1.001588398655512</v>
       </c>
       <c r="K11">
-        <v>0.7909047798934462</v>
+        <v>1.0014643740569</v>
       </c>
       <c r="L11">
-        <v>0.812673427856303</v>
+        <v>1.002490978865179</v>
       </c>
       <c r="M11">
-        <v>0.7093227569701437</v>
+        <v>0.9937377287925274</v>
       </c>
       <c r="N11">
-        <v>0.9284392232645924</v>
+        <v>1.003814516701121</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.7371817649060844</v>
+        <v>0.9940292131350515</v>
       </c>
       <c r="D12">
-        <v>0.7560000694505149</v>
+        <v>0.9970855071619025</v>
       </c>
       <c r="E12">
-        <v>0.780053885405149</v>
+        <v>0.9981789596307075</v>
       </c>
       <c r="F12">
-        <v>0.6637775857013701</v>
+        <v>0.9891300330018727</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268118</v>
       </c>
       <c r="J12">
-        <v>0.784544518373678</v>
+        <v>1.000995865763106</v>
       </c>
       <c r="K12">
-        <v>0.7779837341016198</v>
+        <v>1.00085013801553</v>
       </c>
       <c r="L12">
-        <v>0.801091488449386</v>
+        <v>1.001939123010979</v>
       </c>
       <c r="M12">
-        <v>0.690340514267306</v>
+        <v>0.9929274990880808</v>
       </c>
       <c r="N12">
-        <v>0.9239307596133942</v>
+        <v>1.003599131600842</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.7406265048553663</v>
+        <v>0.9941768037503439</v>
       </c>
       <c r="D13">
-        <v>0.7592035590412431</v>
+        <v>0.997228043017738</v>
       </c>
       <c r="E13">
-        <v>0.7829171566109711</v>
+        <v>0.9983080390005967</v>
       </c>
       <c r="F13">
-        <v>0.6685967242159921</v>
+        <v>0.98931491955115</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405786</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.787474761040493</v>
+        <v>1.001123089153442</v>
       </c>
       <c r="K13">
-        <v>0.7809886458982801</v>
+        <v>1.000982017172391</v>
       </c>
       <c r="L13">
-        <v>0.8037832638252549</v>
+        <v>1.002057614631269</v>
       </c>
       <c r="M13">
-        <v>0.6947900572922289</v>
+        <v>0.9931014485550279</v>
       </c>
       <c r="N13">
-        <v>0.924976488533819</v>
+        <v>1.003645389149349</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.7508732298819162</v>
+        <v>0.9946599011945074</v>
       </c>
       <c r="D14">
-        <v>0.7687394070675263</v>
+        <v>0.9976946010513843</v>
       </c>
       <c r="E14">
-        <v>0.7914501248029635</v>
+        <v>0.998730534404076</v>
       </c>
       <c r="F14">
-        <v>0.6827763674311461</v>
+        <v>0.9899201227947861</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012189</v>
+        <v>1.023922712353277</v>
       </c>
       <c r="J14">
-        <v>0.7961903236861647</v>
+        <v>1.001539475043137</v>
       </c>
       <c r="K14">
-        <v>0.7899282483592297</v>
+        <v>1.001413656617625</v>
       </c>
       <c r="L14">
-        <v>0.8117974505063695</v>
+        <v>1.002445414751849</v>
       </c>
       <c r="M14">
-        <v>0.7079012522595768</v>
+        <v>0.9936708234728923</v>
       </c>
       <c r="N14">
-        <v>0.9280974308681617</v>
+        <v>1.003796738418048</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.7565717565131003</v>
+        <v>0.9949571772351194</v>
       </c>
       <c r="D15">
-        <v>0.774047032200868</v>
+        <v>0.9979817040314944</v>
       </c>
       <c r="E15">
-        <v>0.7962056444555824</v>
+        <v>0.99899051060083</v>
       </c>
       <c r="F15">
-        <v>0.6905702999269495</v>
+        <v>0.990292558607224</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.8010371038829288</v>
+        <v>1.001795665392204</v>
       </c>
       <c r="K15">
-        <v>0.7949008211397269</v>
+        <v>1.001679244150522</v>
       </c>
       <c r="L15">
-        <v>0.8162590411490386</v>
+        <v>1.002684011100385</v>
       </c>
       <c r="M15">
-        <v>0.7151191361554166</v>
+        <v>0.994021190128586</v>
       </c>
       <c r="N15">
-        <v>0.9298395943077744</v>
+        <v>1.00388982421385</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.7840687453313818</v>
+        <v>0.9966817889603912</v>
       </c>
       <c r="D16">
-        <v>0.7997030214247344</v>
+        <v>0.9996473660161398</v>
       </c>
       <c r="E16">
-        <v>0.8192482909419329</v>
+        <v>1.000498605863377</v>
       </c>
       <c r="F16">
-        <v>0.7274161996684286</v>
+        <v>0.9924535359026343</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177636</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.8244255341825354</v>
+        <v>1.003281398206676</v>
       </c>
       <c r="K16">
-        <v>0.8189074220332773</v>
+        <v>1.003219658601091</v>
       </c>
       <c r="L16">
-        <v>0.8378321177394307</v>
+        <v>1.004067618246909</v>
       </c>
       <c r="M16">
-        <v>0.7493330676371972</v>
+        <v>0.9960537990814294</v>
       </c>
       <c r="N16">
-        <v>0.9383071027146763</v>
+        <v>1.004429122571201</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.7982093315923077</v>
+        <v>0.9977586915948756</v>
       </c>
       <c r="D17">
-        <v>0.8129258725704309</v>
+        <v>1.000687517331303</v>
       </c>
       <c r="E17">
-        <v>0.8311562755767256</v>
+        <v>1.00144019575883</v>
       </c>
       <c r="F17">
-        <v>0.7459611660130155</v>
+        <v>0.9938032226934082</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.8364551402882833</v>
+        <v>1.004208674963359</v>
       </c>
       <c r="K17">
-        <v>0.8312617897050401</v>
+        <v>1.004181225239356</v>
       </c>
       <c r="L17">
-        <v>0.8489527981310249</v>
+        <v>1.0049310741052</v>
       </c>
       <c r="M17">
-        <v>0.7666004816371309</v>
+        <v>0.9973230313618544</v>
       </c>
       <c r="N17">
-        <v>0.9426976353724956</v>
+        <v>1.004765234606172</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8057308878511363</v>
+        <v>0.9983850985791206</v>
       </c>
       <c r="D18">
-        <v>0.81996715689148</v>
+        <v>1.001292567750501</v>
       </c>
       <c r="E18">
-        <v>0.8375052496932653</v>
+        <v>1.00198785318273</v>
       </c>
       <c r="F18">
-        <v>0.7557342012921754</v>
+        <v>0.9945884141047752</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601775</v>
       </c>
       <c r="J18">
-        <v>0.8428543422637992</v>
+        <v>1.004747881723711</v>
       </c>
       <c r="K18">
-        <v>0.8378355859572371</v>
+        <v>1.004740429677374</v>
       </c>
       <c r="L18">
-        <v>0.8548745358827852</v>
+        <v>1.005433139341395</v>
       </c>
       <c r="M18">
-        <v>0.7757104817171157</v>
+        <v>0.9980613169681093</v>
       </c>
       <c r="N18">
-        <v>0.9450419298564069</v>
+        <v>1.004960509703679</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8081938951064689</v>
+        <v>0.9985983965555326</v>
       </c>
       <c r="D19">
-        <v>0.8222740683221476</v>
+        <v>1.001498597077148</v>
       </c>
       <c r="E19">
-        <v>0.8395864600297541</v>
+        <v>1.002174328996299</v>
       </c>
       <c r="F19">
-        <v>0.7589219421920765</v>
+        <v>0.9948557992536898</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044801</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.844949880744582</v>
+        <v>1.004931458856658</v>
       </c>
       <c r="K19">
-        <v>0.8399885757032999</v>
+        <v>1.004930825056832</v>
       </c>
       <c r="L19">
-        <v>0.8568145772955343</v>
+        <v>1.005604066228441</v>
       </c>
       <c r="M19">
-        <v>0.7786833180192556</v>
+        <v>0.9983127119490636</v>
       </c>
       <c r="N19">
-        <v>0.9458108527275308</v>
+        <v>1.005026963285528</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.7967730429091988</v>
+        <v>0.9976433300527142</v>
       </c>
       <c r="D20">
-        <v>0.8115819131805974</v>
+        <v>1.000576090560033</v>
       </c>
       <c r="E20">
-        <v>0.8299450580168483</v>
+        <v>1.001339333670627</v>
       </c>
       <c r="F20">
-        <v>0.7440880915939975</v>
+        <v>0.9936586279646489</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030143</v>
       </c>
       <c r="J20">
-        <v>0.8352332076957665</v>
+        <v>1.004109359115976</v>
       </c>
       <c r="K20">
-        <v>0.8300066629667492</v>
+        <v>1.004078230742145</v>
       </c>
       <c r="L20">
-        <v>0.8478224995384643</v>
+        <v>1.004838596883239</v>
       </c>
       <c r="M20">
-        <v>0.7648552420690936</v>
+        <v>0.9971870663168685</v>
       </c>
       <c r="N20">
-        <v>0.9422506585218821</v>
+        <v>1.004729253196775</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.7479988399086644</v>
+        <v>0.9945177196130279</v>
       </c>
       <c r="D21">
-        <v>0.7660634014145495</v>
+        <v>0.9975572862761278</v>
       </c>
       <c r="E21">
-        <v>0.7890541036005148</v>
+        <v>0.9986061904447094</v>
       </c>
       <c r="F21">
-        <v>0.6788209967640477</v>
+        <v>0.9897419995063138</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.7937455271126386</v>
+        <v>1.001416934683181</v>
       </c>
       <c r="K21">
-        <v>0.787420320462942</v>
+        <v>1.001286624685648</v>
       </c>
       <c r="L21">
-        <v>0.809548238218365</v>
+        <v>1.002331288293</v>
       </c>
       <c r="M21">
-        <v>0.7042411823380503</v>
+        <v>0.9935032494993614</v>
       </c>
       <c r="N21">
-        <v>0.9272204143238044</v>
+        <v>1.003752204366217</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7479988399086644</v>
+        <v>0.9925361831080397</v>
       </c>
       <c r="D22">
-        <v>0.7660634014145495</v>
+        <v>0.9956436591728159</v>
       </c>
       <c r="E22">
-        <v>0.7890541036005148</v>
+        <v>0.996873107129798</v>
       </c>
       <c r="F22">
-        <v>0.6788209967640477</v>
+        <v>0.9872599324566306</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044396763635349</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.7937455271126386</v>
+        <v>0.9997085132618043</v>
       </c>
       <c r="K22">
-        <v>0.787420320462942</v>
+        <v>0.9995158005207392</v>
       </c>
       <c r="L22">
-        <v>0.809548238218365</v>
+        <v>1.000740064360185</v>
       </c>
       <c r="M22">
-        <v>0.7042411823380503</v>
+        <v>0.9911678100289011</v>
       </c>
       <c r="N22">
-        <v>0.9272204143238044</v>
+        <v>1.003130696647748</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.7479988399086644</v>
+        <v>0.9935882184135105</v>
       </c>
       <c r="D23">
-        <v>0.7660634014145495</v>
+        <v>0.9966596209353737</v>
       </c>
       <c r="E23">
-        <v>0.7890541036005148</v>
+        <v>0.9977932668817246</v>
       </c>
       <c r="F23">
-        <v>0.6788209967640477</v>
+        <v>0.9885776228259355</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044396763635349</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.7937455271126386</v>
+        <v>1.000615689345496</v>
       </c>
       <c r="K23">
-        <v>0.787420320462942</v>
+        <v>1.00045606237576</v>
       </c>
       <c r="L23">
-        <v>0.809548238218365</v>
+        <v>1.001585032801825</v>
       </c>
       <c r="M23">
-        <v>0.7042411823380503</v>
+        <v>0.9924077441135375</v>
       </c>
       <c r="N23">
-        <v>0.9272204143238044</v>
+        <v>1.003460863377317</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.7479988399086644</v>
+        <v>0.9976954623140015</v>
       </c>
       <c r="D24">
-        <v>0.7660634014145495</v>
+        <v>1.000626444621296</v>
       </c>
       <c r="E24">
-        <v>0.7890541036005148</v>
+        <v>1.001384913709678</v>
       </c>
       <c r="F24">
-        <v>0.6788209967640477</v>
+        <v>0.9937239704495554</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044396763635349</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.7937455271126386</v>
+        <v>1.004154240790481</v>
       </c>
       <c r="K24">
-        <v>0.787420320462942</v>
+        <v>1.004124774649397</v>
       </c>
       <c r="L24">
-        <v>0.809548238218365</v>
+        <v>1.004880388217769</v>
       </c>
       <c r="M24">
-        <v>0.7042411823380503</v>
+        <v>0.9972485093517669</v>
       </c>
       <c r="N24">
-        <v>0.9272204143238044</v>
+        <v>1.004745514034718</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.7479988399086644</v>
+        <v>1.002394095298739</v>
       </c>
       <c r="D25">
-        <v>0.7660634014145495</v>
+        <v>1.005165242897434</v>
       </c>
       <c r="E25">
-        <v>0.7890541036005148</v>
+        <v>1.005492080668991</v>
       </c>
       <c r="F25">
-        <v>0.6788209967640477</v>
+        <v>0.9996157571292119</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044396763635349</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.7937455271126386</v>
+        <v>1.008195799769047</v>
       </c>
       <c r="K25">
-        <v>0.787420320462942</v>
+        <v>1.00831726685016</v>
       </c>
       <c r="L25">
-        <v>0.809548238218365</v>
+        <v>1.008643008013573</v>
       </c>
       <c r="M25">
-        <v>0.7042411823380503</v>
+        <v>1.002786521031373</v>
       </c>
       <c r="N25">
-        <v>0.9272204143238044</v>
+        <v>1.006206052205764</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_93/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_93/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006090927296766</v>
+        <v>0.8757813139534102</v>
       </c>
       <c r="D2">
-        <v>1.008736917786339</v>
+        <v>0.8857917608267106</v>
       </c>
       <c r="E2">
-        <v>1.008722147100834</v>
+        <v>0.8970651955480109</v>
       </c>
       <c r="F2">
-        <v>1.004255285924022</v>
+        <v>0.8445651984809754</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.023594999628091</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.011370418211365</v>
+        <v>0.9024388679798171</v>
       </c>
       <c r="K2">
-        <v>1.011612260904118</v>
+        <v>0.8991103725623778</v>
       </c>
       <c r="L2">
-        <v>1.011597535032606</v>
+        <v>0.9101728436944666</v>
       </c>
       <c r="M2">
-        <v>1.00714429220932</v>
+        <v>0.858718965740067</v>
       </c>
       <c r="N2">
-        <v>1.007347764093004</v>
+        <v>0.9670925342987735</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008747479273435</v>
+        <v>0.8944385519074743</v>
       </c>
       <c r="D3">
-        <v>1.011303855525857</v>
+        <v>0.9033930332535084</v>
       </c>
       <c r="E3">
-        <v>1.011042418778869</v>
+        <v>0.9130373275831114</v>
       </c>
       <c r="F3">
-        <v>1.007591720365494</v>
+        <v>0.8677596608903685</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208683</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.013648668426333</v>
+        <v>0.9182883657701707</v>
       </c>
       <c r="K3">
-        <v>1.01397794869283</v>
+        <v>0.9154319408686886</v>
       </c>
       <c r="L3">
-        <v>1.013717244929004</v>
+        <v>0.9249187246824785</v>
       </c>
       <c r="M3">
-        <v>1.010276259819717</v>
+        <v>0.8804200875861934</v>
       </c>
       <c r="N3">
-        <v>1.008163843152681</v>
+        <v>0.9730008277988095</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010454205672261</v>
+        <v>0.9055181817541613</v>
       </c>
       <c r="D4">
-        <v>1.012953150827621</v>
+        <v>0.9138582289558171</v>
       </c>
       <c r="E4">
-        <v>1.012532685184043</v>
+        <v>0.9225394459016698</v>
       </c>
       <c r="F4">
-        <v>1.009736437635741</v>
+        <v>0.8814737576165382</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.015110944212857</v>
+        <v>0.9276918708148282</v>
       </c>
       <c r="K4">
-        <v>1.015496830735572</v>
+        <v>0.9251209556486527</v>
       </c>
       <c r="L4">
-        <v>1.015077481814618</v>
+        <v>0.9336723267880482</v>
       </c>
       <c r="M4">
-        <v>1.012288686452855</v>
+        <v>0.8932499082610118</v>
       </c>
       <c r="N4">
-        <v>1.008686106013879</v>
+        <v>0.9765086501147794</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011168864086611</v>
+        <v>0.9099760414900721</v>
       </c>
       <c r="D5">
-        <v>1.01364379410684</v>
+        <v>0.9180714508014388</v>
       </c>
       <c r="E5">
-        <v>1.013156603907741</v>
+        <v>0.9263658303767913</v>
       </c>
       <c r="F5">
-        <v>1.010634790494188</v>
+        <v>0.8869809358341336</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628352</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.015722906349846</v>
+        <v>0.9314730580382714</v>
       </c>
       <c r="K5">
-        <v>1.016132598703526</v>
+        <v>0.9290181903566557</v>
       </c>
       <c r="L5">
-        <v>1.015646672322158</v>
+        <v>0.9371930322820307</v>
       </c>
       <c r="M5">
-        <v>1.013131421759706</v>
+        <v>0.8984012309339031</v>
       </c>
       <c r="N5">
-        <v>1.00890430323948</v>
+        <v>0.9779191308822359</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01128869361613</v>
+        <v>0.9107137093106948</v>
       </c>
       <c r="D6">
-        <v>1.013759598832091</v>
+        <v>0.9187687775322075</v>
       </c>
       <c r="E6">
-        <v>1.013261212756077</v>
+        <v>0.9269991736897343</v>
       </c>
       <c r="F6">
-        <v>1.010785438287014</v>
+        <v>0.8878917006945571</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.015825496594373</v>
+        <v>0.9320986132564399</v>
       </c>
       <c r="K6">
-        <v>1.016239186605169</v>
+        <v>0.9296630161433465</v>
       </c>
       <c r="L6">
-        <v>1.01574208822494</v>
+        <v>0.9377755357463682</v>
       </c>
       <c r="M6">
-        <v>1.013272730806827</v>
+        <v>0.8992530903702388</v>
       </c>
       <c r="N6">
-        <v>1.008940860364173</v>
+        <v>0.9781524620959146</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010463766062008</v>
+        <v>0.9055784918085842</v>
       </c>
       <c r="D7">
-        <v>1.012962389824796</v>
+        <v>0.9139152195504715</v>
       </c>
       <c r="E7">
-        <v>1.012541032099205</v>
+        <v>0.9225912008449928</v>
       </c>
       <c r="F7">
-        <v>1.009748454240761</v>
+        <v>0.8815483022488668</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02344298551034</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.015119132104624</v>
+        <v>0.9277430355885753</v>
       </c>
       <c r="K7">
-        <v>1.01550533668602</v>
+        <v>0.9251736858067716</v>
       </c>
       <c r="L7">
-        <v>1.015085097703793</v>
+        <v>0.9337199638618162</v>
       </c>
       <c r="M7">
-        <v>1.01229995991101</v>
+        <v>0.8933196395765792</v>
       </c>
       <c r="N7">
-        <v>1.008689026894543</v>
+        <v>0.9765277367347521</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006991305242733</v>
+        <v>0.8823187308931415</v>
       </c>
       <c r="D8">
-        <v>1.009606892739674</v>
+        <v>0.8919560643951521</v>
       </c>
       <c r="E8">
-        <v>1.009508635157863</v>
+        <v>0.9026573975021209</v>
       </c>
       <c r="F8">
-        <v>1.00538585128034</v>
+        <v>0.8527084306926539</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.012142871873047</v>
+        <v>0.9079942447310789</v>
       </c>
       <c r="K8">
-        <v>1.012414259729833</v>
+        <v>0.9048299779603869</v>
       </c>
       <c r="L8">
-        <v>1.01231629258539</v>
+        <v>0.9153400861146687</v>
       </c>
       <c r="M8">
-        <v>1.008205750865691</v>
+        <v>0.8663378570702075</v>
       </c>
       <c r="N8">
-        <v>1.007624777058743</v>
+        <v>0.9691624607038939</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000774926865738</v>
+        <v>0.8310667399382864</v>
       </c>
       <c r="D9">
-        <v>1.003601057654389</v>
+        <v>0.8437243878717517</v>
       </c>
       <c r="E9">
-        <v>1.004076946789063</v>
+        <v>0.8589623778114019</v>
       </c>
       <c r="F9">
-        <v>0.9975848337851936</v>
+        <v>0.7882637290538177</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.006803877021899</v>
+        <v>0.8644105482372433</v>
       </c>
       <c r="K9">
-        <v>1.006873078252644</v>
+        <v>0.8599893987325659</v>
       </c>
       <c r="L9">
-        <v>1.007347303589047</v>
+        <v>0.874849769212919</v>
       </c>
       <c r="M9">
-        <v>1.000878039125616</v>
+        <v>0.806073708097703</v>
       </c>
       <c r="N9">
-        <v>1.005703893909823</v>
+        <v>0.952978272133525</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.996559851789255</v>
+        <v>0.7823511182023839</v>
       </c>
       <c r="D10">
-        <v>0.9995295930248139</v>
+        <v>0.7980982023018737</v>
       </c>
       <c r="E10">
-        <v>1.000391984513435</v>
+        <v>0.8178044437083399</v>
       </c>
       <c r="F10">
-        <v>0.9923007265657129</v>
+        <v>0.7251468653194564</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.003176380503838</v>
+        <v>0.8229644190365701</v>
       </c>
       <c r="K10">
-        <v>1.003110765348435</v>
+        <v>0.8174071701050962</v>
       </c>
       <c r="L10">
-        <v>1.003969824468226</v>
+        <v>0.8364824721124502</v>
       </c>
       <c r="M10">
-        <v>0.9959100850204839</v>
+        <v>0.7472220008515689</v>
       </c>
       <c r="N10">
-        <v>1.004391033268429</v>
+        <v>0.9377753718370783</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9947166684116076</v>
+        <v>0.7519923966843169</v>
       </c>
       <c r="D11">
-        <v>0.9977494253751147</v>
+        <v>0.7697815502640792</v>
       </c>
       <c r="E11">
-        <v>0.998780179401472</v>
+        <v>0.7923835285410445</v>
       </c>
       <c r="F11">
-        <v>0.9899912410929461</v>
+        <v>0.6843119709817388</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.001588398655512</v>
+        <v>0.7971422160443759</v>
       </c>
       <c r="K11">
-        <v>1.0014643740569</v>
+        <v>0.7909047798934492</v>
       </c>
       <c r="L11">
-        <v>1.002490978865179</v>
+        <v>0.8126734278563063</v>
       </c>
       <c r="M11">
-        <v>0.9937377287925274</v>
+        <v>0.7093227569701486</v>
       </c>
       <c r="N11">
-        <v>1.003814516701121</v>
+        <v>0.9284392232645937</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9940292131350515</v>
+        <v>0.7371817649060852</v>
       </c>
       <c r="D12">
-        <v>0.9970855071619025</v>
+        <v>0.7560000694505156</v>
       </c>
       <c r="E12">
-        <v>0.9981789596307075</v>
+        <v>0.7800538854051495</v>
       </c>
       <c r="F12">
-        <v>0.9891300330018727</v>
+        <v>0.6637775857013706</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268118</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.000995865763106</v>
+        <v>0.7845445183736787</v>
       </c>
       <c r="K12">
-        <v>1.00085013801553</v>
+        <v>0.7779837341016206</v>
       </c>
       <c r="L12">
-        <v>1.001939123010979</v>
+        <v>0.8010914884493865</v>
       </c>
       <c r="M12">
-        <v>0.9929274990880808</v>
+        <v>0.6903405142673065</v>
       </c>
       <c r="N12">
-        <v>1.003599131600842</v>
+        <v>0.9239307596133943</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9941768037503439</v>
+        <v>0.7406265048553625</v>
       </c>
       <c r="D13">
-        <v>0.997228043017738</v>
+        <v>0.7592035590412396</v>
       </c>
       <c r="E13">
-        <v>0.9983080390005967</v>
+        <v>0.7829171566109679</v>
       </c>
       <c r="F13">
-        <v>0.98931491955115</v>
+        <v>0.6685967242159873</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>1.001123089153442</v>
+        <v>0.7874747610404897</v>
       </c>
       <c r="K13">
-        <v>1.000982017172391</v>
+        <v>0.7809886458982765</v>
       </c>
       <c r="L13">
-        <v>1.002057614631269</v>
+        <v>0.803783263825252</v>
       </c>
       <c r="M13">
-        <v>0.9931014485550279</v>
+        <v>0.6947900572922244</v>
       </c>
       <c r="N13">
-        <v>1.003645389149349</v>
+        <v>0.9249764885338178</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9946599011945074</v>
+        <v>0.7508732298819154</v>
       </c>
       <c r="D14">
-        <v>0.9976946010513843</v>
+        <v>0.7687394070675256</v>
       </c>
       <c r="E14">
-        <v>0.998730534404076</v>
+        <v>0.7914501248029631</v>
       </c>
       <c r="F14">
-        <v>0.9899201227947861</v>
+        <v>0.6827763674311452</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353277</v>
+        <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>1.001539475043137</v>
+        <v>0.7961903236861642</v>
       </c>
       <c r="K14">
-        <v>1.001413656617625</v>
+        <v>0.7899282483592293</v>
       </c>
       <c r="L14">
-        <v>1.002445414751849</v>
+        <v>0.811797450506369</v>
       </c>
       <c r="M14">
-        <v>0.9936708234728923</v>
+        <v>0.707901252259576</v>
       </c>
       <c r="N14">
-        <v>1.003796738418048</v>
+        <v>0.9280974308681613</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9949571772351194</v>
+        <v>0.7565717565131027</v>
       </c>
       <c r="D15">
-        <v>0.9979817040314944</v>
+        <v>0.7740470322008703</v>
       </c>
       <c r="E15">
-        <v>0.99899051060083</v>
+        <v>0.7962056444555845</v>
       </c>
       <c r="F15">
-        <v>0.990292558607224</v>
+        <v>0.6905702999269526</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.001795665392204</v>
+        <v>0.8010371038829311</v>
       </c>
       <c r="K15">
-        <v>1.001679244150522</v>
+        <v>0.7949008211397293</v>
       </c>
       <c r="L15">
-        <v>1.002684011100385</v>
+        <v>0.8162590411490405</v>
       </c>
       <c r="M15">
-        <v>0.994021190128586</v>
+        <v>0.7151191361554196</v>
       </c>
       <c r="N15">
-        <v>1.00388982421385</v>
+        <v>0.9298395943077752</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9966817889603912</v>
+        <v>0.7840687453313846</v>
       </c>
       <c r="D16">
-        <v>0.9996473660161398</v>
+        <v>0.7997030214247371</v>
       </c>
       <c r="E16">
-        <v>1.000498605863377</v>
+        <v>0.8192482909419353</v>
       </c>
       <c r="F16">
-        <v>0.9924535359026343</v>
+        <v>0.7274161996684319</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177636</v>
       </c>
       <c r="J16">
-        <v>1.003281398206676</v>
+        <v>0.8244255341825382</v>
       </c>
       <c r="K16">
-        <v>1.003219658601091</v>
+        <v>0.8189074220332799</v>
       </c>
       <c r="L16">
-        <v>1.004067618246909</v>
+        <v>0.837832117739433</v>
       </c>
       <c r="M16">
-        <v>0.9960537990814294</v>
+        <v>0.7493330676372004</v>
       </c>
       <c r="N16">
-        <v>1.004429122571201</v>
+        <v>0.938307102714677</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9977586915948756</v>
+        <v>0.7982093315923102</v>
       </c>
       <c r="D17">
-        <v>1.000687517331303</v>
+        <v>0.8129258725704331</v>
       </c>
       <c r="E17">
-        <v>1.00144019575883</v>
+        <v>0.8311562755767273</v>
       </c>
       <c r="F17">
-        <v>0.9938032226934082</v>
+        <v>0.7459611660130185</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831721</v>
       </c>
       <c r="J17">
-        <v>1.004208674963359</v>
+        <v>0.8364551402882855</v>
       </c>
       <c r="K17">
-        <v>1.004181225239356</v>
+        <v>0.8312617897050423</v>
       </c>
       <c r="L17">
-        <v>1.0049310741052</v>
+        <v>0.8489527981310269</v>
       </c>
       <c r="M17">
-        <v>0.9973230313618544</v>
+        <v>0.7666004816371337</v>
       </c>
       <c r="N17">
-        <v>1.004765234606172</v>
+        <v>0.9426976353724963</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9983850985791206</v>
+        <v>0.8057308878511363</v>
       </c>
       <c r="D18">
-        <v>1.001292567750501</v>
+        <v>0.81996715689148</v>
       </c>
       <c r="E18">
-        <v>1.00198785318273</v>
+        <v>0.8375052496932653</v>
       </c>
       <c r="F18">
-        <v>0.9945884141047752</v>
+        <v>0.7557342012921747</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601775</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.004747881723711</v>
+        <v>0.8428543422637991</v>
       </c>
       <c r="K18">
-        <v>1.004740429677374</v>
+        <v>0.8378355859572372</v>
       </c>
       <c r="L18">
-        <v>1.005433139341395</v>
+        <v>0.8548745358827853</v>
       </c>
       <c r="M18">
-        <v>0.9980613169681093</v>
+        <v>0.7757104817171149</v>
       </c>
       <c r="N18">
-        <v>1.004960509703679</v>
+        <v>0.9450419298564068</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9985983965555326</v>
+        <v>0.8081938951064765</v>
       </c>
       <c r="D19">
-        <v>1.001498597077148</v>
+        <v>0.8222740683221555</v>
       </c>
       <c r="E19">
-        <v>1.002174328996299</v>
+        <v>0.839586460029761</v>
       </c>
       <c r="F19">
-        <v>0.9948557992536898</v>
+        <v>0.7589219421920854</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>1.004931458856658</v>
+        <v>0.8449498807445893</v>
       </c>
       <c r="K19">
-        <v>1.004930825056832</v>
+        <v>0.8399885757033078</v>
       </c>
       <c r="L19">
-        <v>1.005604066228441</v>
+        <v>0.8568145772955412</v>
       </c>
       <c r="M19">
-        <v>0.9983127119490636</v>
+        <v>0.7786833180192644</v>
       </c>
       <c r="N19">
-        <v>1.005026963285528</v>
+        <v>0.9458108527275334</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9976433300527142</v>
+        <v>0.7967730429091961</v>
       </c>
       <c r="D20">
-        <v>1.000576090560033</v>
+        <v>0.8115819131805945</v>
       </c>
       <c r="E20">
-        <v>1.001339333670627</v>
+        <v>0.8299450580168457</v>
       </c>
       <c r="F20">
-        <v>0.9936586279646489</v>
+        <v>0.7440880915939939</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030143</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.004109359115976</v>
+        <v>0.8352332076957638</v>
       </c>
       <c r="K20">
-        <v>1.004078230742145</v>
+        <v>0.8300066629667464</v>
       </c>
       <c r="L20">
-        <v>1.004838596883239</v>
+        <v>0.8478224995384618</v>
       </c>
       <c r="M20">
-        <v>0.9971870663168685</v>
+        <v>0.7648552420690903</v>
       </c>
       <c r="N20">
-        <v>1.004729253196775</v>
+        <v>0.9422506585218811</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9945177196130279</v>
+        <v>0.747998839908663</v>
       </c>
       <c r="D21">
-        <v>0.9975572862761278</v>
+        <v>0.7660634014145482</v>
       </c>
       <c r="E21">
-        <v>0.9986061904447094</v>
+        <v>0.7890541036005138</v>
       </c>
       <c r="F21">
-        <v>0.9897419995063138</v>
+        <v>0.6788209967640465</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.001416934683181</v>
+        <v>0.7937455271126372</v>
       </c>
       <c r="K21">
-        <v>1.001286624685648</v>
+        <v>0.7874203204629406</v>
       </c>
       <c r="L21">
-        <v>1.002331288293</v>
+        <v>0.8095482382183641</v>
       </c>
       <c r="M21">
-        <v>0.9935032494993614</v>
+        <v>0.7042411823380491</v>
       </c>
       <c r="N21">
-        <v>1.003752204366217</v>
+        <v>0.9272204143238041</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9925361831080397</v>
+        <v>0.747998839908663</v>
       </c>
       <c r="D22">
-        <v>0.9956436591728159</v>
+        <v>0.7660634014145482</v>
       </c>
       <c r="E22">
-        <v>0.996873107129798</v>
+        <v>0.7890541036005138</v>
       </c>
       <c r="F22">
-        <v>0.9872599324566306</v>
+        <v>0.6788209967640465</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J22">
-        <v>0.9997085132618043</v>
+        <v>0.7937455271126372</v>
       </c>
       <c r="K22">
-        <v>0.9995158005207392</v>
+        <v>0.7874203204629406</v>
       </c>
       <c r="L22">
-        <v>1.000740064360185</v>
+        <v>0.8095482382183641</v>
       </c>
       <c r="M22">
-        <v>0.9911678100289011</v>
+        <v>0.7042411823380491</v>
       </c>
       <c r="N22">
-        <v>1.003130696647748</v>
+        <v>0.9272204143238041</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9935882184135105</v>
+        <v>0.747998839908663</v>
       </c>
       <c r="D23">
-        <v>0.9966596209353737</v>
+        <v>0.7660634014145482</v>
       </c>
       <c r="E23">
-        <v>0.9977932668817246</v>
+        <v>0.7890541036005138</v>
       </c>
       <c r="F23">
-        <v>0.9885776228259355</v>
+        <v>0.6788209967640465</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J23">
-        <v>1.000615689345496</v>
+        <v>0.7937455271126372</v>
       </c>
       <c r="K23">
-        <v>1.00045606237576</v>
+        <v>0.7874203204629406</v>
       </c>
       <c r="L23">
-        <v>1.001585032801825</v>
+        <v>0.8095482382183641</v>
       </c>
       <c r="M23">
-        <v>0.9924077441135375</v>
+        <v>0.7042411823380491</v>
       </c>
       <c r="N23">
-        <v>1.003460863377317</v>
+        <v>0.9272204143238041</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9976954623140015</v>
+        <v>0.747998839908663</v>
       </c>
       <c r="D24">
-        <v>1.000626444621296</v>
+        <v>0.7660634014145482</v>
       </c>
       <c r="E24">
-        <v>1.001384913709678</v>
+        <v>0.7890541036005138</v>
       </c>
       <c r="F24">
-        <v>0.9937239704495554</v>
+        <v>0.6788209967640465</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J24">
-        <v>1.004154240790481</v>
+        <v>0.7937455271126372</v>
       </c>
       <c r="K24">
-        <v>1.004124774649397</v>
+        <v>0.7874203204629406</v>
       </c>
       <c r="L24">
-        <v>1.004880388217769</v>
+        <v>0.8095482382183641</v>
       </c>
       <c r="M24">
-        <v>0.9972485093517669</v>
+        <v>0.7042411823380491</v>
       </c>
       <c r="N24">
-        <v>1.004745514034718</v>
+        <v>0.9272204143238041</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002394095298739</v>
+        <v>0.747998839908663</v>
       </c>
       <c r="D25">
-        <v>1.005165242897434</v>
+        <v>0.7660634014145482</v>
       </c>
       <c r="E25">
-        <v>1.005492080668991</v>
+        <v>0.7890541036005138</v>
       </c>
       <c r="F25">
-        <v>0.9996157571292119</v>
+        <v>0.6788209967640465</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J25">
-        <v>1.008195799769047</v>
+        <v>0.7937455271126372</v>
       </c>
       <c r="K25">
-        <v>1.00831726685016</v>
+        <v>0.7874203204629406</v>
       </c>
       <c r="L25">
-        <v>1.008643008013573</v>
+        <v>0.8095482382183641</v>
       </c>
       <c r="M25">
-        <v>1.002786521031373</v>
+        <v>0.7042411823380491</v>
       </c>
       <c r="N25">
-        <v>1.006206052205764</v>
+        <v>0.9272204143238041</v>
       </c>
     </row>
   </sheetData>
